--- a/TCC - Monografia/Documentos/Soltos/CaracterísticasAbrasil-3 12 2014.xlsx
+++ b/TCC - Monografia/Documentos/Soltos/CaracterísticasAbrasil-3 12 2014.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="248">
   <si>
     <t>Workshop de Características - Abrasil Express</t>
   </si>
@@ -640,12 +640,6 @@
   </si>
   <si>
     <t>ver quem ?</t>
-  </si>
-  <si>
-    <t>Coberto</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>O sistema deve cadastrar novas contas</t>
@@ -661,9 +655,6 @@
   <si>
     <t>4
 9</t>
-  </si>
-  <si>
-    <t>Requisitos de Negocio</t>
   </si>
   <si>
     <t>O sitema deve mostrar os devedores</t>
@@ -710,9 +701,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gerenciar Contas </t>
-  </si>
-  <si>
-    <t>Requisito Negocio Antecessor</t>
   </si>
   <si>
     <t>1
@@ -750,9 +738,6 @@
     <t xml:space="preserve">Mostrar faturamento por ano </t>
   </si>
   <si>
-    <t xml:space="preserve">Mostrar atrasados </t>
-  </si>
-  <si>
     <t>Fazer botão para esquecer conta(como se não contasse mas n sistema(desisido de cobrar)</t>
   </si>
   <si>
@@ -787,6 +772,18 @@
   </si>
   <si>
     <t>Ver resultado das contas do mês (DRE)</t>
+  </si>
+  <si>
+    <t>Requisitos de Software</t>
+  </si>
+  <si>
+    <t>Mostrar atrasados e desistidos</t>
+  </si>
+  <si>
+    <t>Requisito software  Antecessor</t>
+  </si>
+  <si>
+    <t>Requisito software Antecessor</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1160,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1241,51 +1238,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,9 +1245,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,6 +1305,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2222,13 +2216,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2245,37 +2239,37 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="5" t="s">
         <v>84</v>
       </c>
@@ -2290,7 +2284,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="65" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2310,7 +2304,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,7 +2322,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2346,7 +2340,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2358,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2382,7 +2376,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2394,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2418,7 +2412,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +2430,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -2454,7 +2448,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -2472,7 +2466,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -2490,7 +2484,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="3" t="s">
         <v>83</v>
       </c>
@@ -2508,7 +2502,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="65" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="3"/>
@@ -2517,7 +2511,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -2535,7 +2529,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2553,7 +2547,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
@@ -2571,7 +2565,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="65" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="3"/>
@@ -2580,7 +2574,7 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
@@ -2598,7 +2592,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2616,7 +2610,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2628,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="3"/>
@@ -2643,7 +2637,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
@@ -2661,7 +2655,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
@@ -2679,7 +2673,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
@@ -2697,7 +2691,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
@@ -2715,7 +2709,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
@@ -2733,7 +2727,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
@@ -2751,7 +2745,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
@@ -2769,7 +2763,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
@@ -2787,7 +2781,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="65" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="3"/>
@@ -2796,7 +2790,7 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
@@ -2814,7 +2808,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="3" t="s">
         <v>49</v>
       </c>
@@ -2832,7 +2826,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
@@ -2850,7 +2844,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="3" t="s">
         <v>51</v>
       </c>
@@ -2868,7 +2862,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="3" t="s">
         <v>52</v>
       </c>
@@ -2886,7 +2880,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="3" t="s">
         <v>34</v>
       </c>
@@ -2904,7 +2898,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="3" t="s">
         <v>35</v>
       </c>
@@ -2922,7 +2916,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="3" t="s">
         <v>36</v>
       </c>
@@ -2940,7 +2934,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="3" t="s">
         <v>37</v>
       </c>
@@ -2958,7 +2952,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
@@ -2976,7 +2970,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -2994,7 +2988,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="3" t="s">
         <v>39</v>
       </c>
@@ -3012,7 +3006,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="3" t="s">
         <v>40</v>
       </c>
@@ -3030,7 +3024,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
@@ -3048,7 +3042,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="3" t="s">
         <v>41</v>
       </c>
@@ -3066,7 +3060,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="3" t="s">
         <v>42</v>
       </c>
@@ -3084,7 +3078,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="3" t="s">
         <v>43</v>
       </c>
@@ -3102,7 +3096,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="3" t="s">
         <v>44</v>
       </c>
@@ -3120,7 +3114,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="3" t="s">
         <v>45</v>
       </c>
@@ -3138,7 +3132,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="3" t="s">
         <v>46</v>
       </c>
@@ -3156,7 +3150,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="3" t="s">
         <v>47</v>
       </c>
@@ -3174,7 +3168,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="3" t="s">
         <v>48</v>
       </c>
@@ -3192,7 +3186,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="3" t="s">
         <v>53</v>
       </c>
@@ -3210,7 +3204,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="3" t="s">
         <v>54</v>
       </c>
@@ -3228,7 +3222,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="65" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="3"/>
@@ -3237,7 +3231,7 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="3" t="s">
         <v>64</v>
       </c>
@@ -3255,7 +3249,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="3" t="s">
         <v>57</v>
       </c>
@@ -3273,7 +3267,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="3" t="s">
         <v>58</v>
       </c>
@@ -3291,7 +3285,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="3" t="s">
         <v>87</v>
       </c>
@@ -3309,7 +3303,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="3" t="s">
         <v>59</v>
       </c>
@@ -3327,7 +3321,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="3" t="s">
         <v>60</v>
       </c>
@@ -3345,7 +3339,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="3" t="s">
         <v>88</v>
       </c>
@@ -3363,7 +3357,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="3" t="s">
         <v>89</v>
       </c>
@@ -3381,7 +3375,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="3" t="s">
         <v>61</v>
       </c>
@@ -3399,7 +3393,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="3" t="s">
         <v>62</v>
       </c>
@@ -3417,7 +3411,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="3" t="s">
         <v>63</v>
       </c>
@@ -3435,7 +3429,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="3" t="s">
         <v>90</v>
       </c>
@@ -3453,7 +3447,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="3" t="s">
         <v>65</v>
       </c>
@@ -3471,7 +3465,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="3" t="s">
         <v>66</v>
       </c>
@@ -3489,7 +3483,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
+      <c r="A77" s="67"/>
       <c r="B77" s="3" t="s">
         <v>95</v>
       </c>
@@ -3507,7 +3501,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="65" t="s">
         <v>67</v>
       </c>
       <c r="B78" s="3"/>
@@ -3516,7 +3510,7 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="3" t="s">
         <v>68</v>
       </c>
@@ -3534,7 +3528,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="3" t="s">
         <v>69</v>
       </c>
@@ -3552,7 +3546,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="3" t="s">
         <v>70</v>
       </c>
@@ -3570,7 +3564,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="3" t="s">
         <v>91</v>
       </c>
@@ -3588,7 +3582,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="3" t="s">
         <v>71</v>
       </c>
@@ -3606,7 +3600,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="3" t="s">
         <v>72</v>
       </c>
@@ -3624,7 +3618,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
+      <c r="A85" s="67"/>
       <c r="B85" s="3" t="s">
         <v>73</v>
       </c>
@@ -3642,7 +3636,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="65" t="s">
         <v>74</v>
       </c>
       <c r="B86" s="3"/>
@@ -3651,7 +3645,7 @@
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="3" t="s">
         <v>75</v>
       </c>
@@ -3669,7 +3663,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="3" t="s">
         <v>76</v>
       </c>
@@ -3687,7 +3681,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="3" t="s">
         <v>77</v>
       </c>
@@ -3705,7 +3699,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
+      <c r="A90" s="67"/>
       <c r="B90" s="3" t="s">
         <v>78</v>
       </c>
@@ -3724,11 +3718,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A37:A61"/>
     <mergeCell ref="A62:A77"/>
     <mergeCell ref="A78:A85"/>
@@ -3737,6 +3726,11 @@
     <mergeCell ref="A28:A36"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="77" priority="10" operator="containsText" text="Importante">
@@ -3803,13 +3797,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -4642,7 +4636,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="73" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -4662,7 +4656,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="29" t="s">
         <v>117</v>
       </c>
@@ -4680,7 +4674,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="29" t="s">
         <v>118</v>
       </c>
@@ -4698,7 +4692,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="29" t="s">
         <v>119</v>
       </c>
@@ -4716,7 +4710,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="29" t="s">
         <v>120</v>
       </c>
@@ -4734,7 +4728,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="29" t="s">
         <v>121</v>
       </c>
@@ -4752,7 +4746,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="29" t="s">
         <v>122</v>
       </c>
@@ -4770,7 +4764,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="29" t="s">
         <v>123</v>
       </c>
@@ -4788,7 +4782,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="29" t="s">
         <v>124</v>
       </c>
@@ -4806,7 +4800,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="29" t="s">
         <v>125</v>
       </c>
@@ -4824,17 +4818,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="73"/>
+      <c r="B12" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="29" t="s">
         <v>126</v>
       </c>
@@ -4852,7 +4846,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="29" t="s">
         <v>127</v>
       </c>
@@ -4870,7 +4864,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="29" t="s">
         <v>128</v>
       </c>
@@ -4888,7 +4882,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="29" t="s">
         <v>129</v>
       </c>
@@ -4906,7 +4900,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="29" t="s">
         <v>130</v>
       </c>
@@ -4944,7 +4938,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="67" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -4962,7 +4956,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="29" t="s">
         <v>132</v>
       </c>
@@ -4980,7 +4974,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="29" t="s">
         <v>133</v>
       </c>
@@ -4998,7 +4992,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="29" t="s">
         <v>134</v>
       </c>
@@ -5016,7 +5010,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="29" t="s">
         <v>135</v>
       </c>
@@ -5034,7 +5028,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>136</v>
       </c>
@@ -5052,7 +5046,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="29" t="s">
         <v>137</v>
       </c>
@@ -5070,7 +5064,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="29" t="s">
         <v>138</v>
       </c>
@@ -5088,7 +5082,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="29" t="s">
         <v>139</v>
       </c>
@@ -5106,7 +5100,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="29" t="s">
         <v>140</v>
       </c>
@@ -5124,7 +5118,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="29" t="s">
         <v>141</v>
       </c>
@@ -5142,7 +5136,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="29" t="s">
         <v>142</v>
       </c>
@@ -5160,7 +5154,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="29" t="s">
         <v>143</v>
       </c>
@@ -5178,7 +5172,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="29" t="s">
         <v>144</v>
       </c>
@@ -5196,7 +5190,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="29" t="s">
         <v>145</v>
       </c>
@@ -5214,7 +5208,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="29" t="s">
         <v>146</v>
       </c>
@@ -5232,17 +5226,17 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="73"/>
+      <c r="B35" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="29" t="s">
         <v>147</v>
       </c>
@@ -5260,7 +5254,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="29" t="s">
         <v>148</v>
       </c>
@@ -5278,7 +5272,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="29" t="s">
         <v>149</v>
       </c>
@@ -5296,7 +5290,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="29" t="s">
         <v>150</v>
       </c>
@@ -5314,7 +5308,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="29" t="s">
         <v>151</v>
       </c>
@@ -5333,7 +5327,7 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="29" t="s">
         <v>152</v>
       </c>
@@ -5371,7 +5365,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="65" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="29" t="s">
@@ -5391,7 +5385,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="29" t="s">
         <v>154</v>
       </c>
@@ -5409,7 +5403,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="29" t="s">
         <v>155</v>
       </c>
@@ -5427,7 +5421,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="29" t="s">
         <v>156</v>
       </c>
@@ -5445,7 +5439,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="29" t="s">
         <v>194</v>
       </c>
@@ -5463,14 +5457,14 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="44" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="72"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
@@ -5493,7 +5487,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="67" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="29" t="s">
@@ -5513,7 +5507,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="29" t="s">
         <v>196</v>
       </c>
@@ -5531,7 +5525,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="29" t="s">
         <v>197</v>
       </c>
@@ -5549,7 +5543,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="29" t="s">
         <v>157</v>
       </c>
@@ -5567,7 +5561,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="29" t="s">
         <v>158</v>
       </c>
@@ -5585,7 +5579,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="29" t="s">
         <v>159</v>
       </c>
@@ -5603,7 +5597,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="29" t="s">
         <v>160</v>
       </c>
@@ -5621,7 +5615,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="29" t="s">
         <v>163</v>
       </c>
@@ -5639,7 +5633,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="29" t="s">
         <v>164</v>
       </c>
@@ -5657,17 +5651,17 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="44" t="s">
+      <c r="A59" s="73"/>
+      <c r="B59" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="46"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="72"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="29" t="s">
         <v>165</v>
       </c>
@@ -5685,7 +5679,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="29" t="s">
         <v>166</v>
       </c>
@@ -5703,7 +5697,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="29" t="s">
         <v>167</v>
       </c>
@@ -5721,7 +5715,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="29" t="s">
         <v>168</v>
       </c>
@@ -5739,7 +5733,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>169</v>
       </c>
@@ -5757,7 +5751,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="29" t="s">
         <v>170</v>
       </c>
@@ -5795,7 +5789,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="67" t="s">
         <v>108</v>
       </c>
       <c r="B67" s="29" t="s">
@@ -5815,7 +5809,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="29" t="s">
         <v>172</v>
       </c>
@@ -5833,7 +5827,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="29" t="s">
         <v>173</v>
       </c>
@@ -5851,7 +5845,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="29" t="s">
         <v>174</v>
       </c>
@@ -5869,7 +5863,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="29" t="s">
         <v>175</v>
       </c>
@@ -5887,7 +5881,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="29" t="s">
         <v>176</v>
       </c>
@@ -5905,7 +5899,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="29" t="s">
         <v>177</v>
       </c>
@@ -5923,7 +5917,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="29" t="s">
         <v>178</v>
       </c>
@@ -5941,17 +5935,17 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="44" t="s">
+      <c r="A75" s="73"/>
+      <c r="B75" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="46"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="72"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="29" t="s">
         <v>179</v>
       </c>
@@ -5969,7 +5963,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="29" t="s">
         <v>180</v>
       </c>
@@ -5987,7 +5981,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="29" t="s">
         <v>181</v>
       </c>
@@ -6005,7 +5999,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="29" t="s">
         <v>182</v>
       </c>
@@ -6023,7 +6017,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="29" t="s">
         <v>183</v>
       </c>
@@ -6041,7 +6035,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="29" t="s">
         <v>184</v>
       </c>
@@ -6059,7 +6053,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="29" t="s">
         <v>185</v>
       </c>
@@ -7586,724 +7580,578 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="50" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.5703125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="48" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="48" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="47.42578125" style="71" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="48" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="43.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="48" customWidth="1"/>
+    <col min="3" max="3" width="48" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" style="55" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="43.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="33" customWidth="1"/>
+    <col min="14" max="14" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="46" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="46" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="52" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:18" s="36" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="41">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="43">
+        <v>1</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="51">
+        <v>1</v>
+      </c>
+      <c r="H2" s="51">
+        <v>1</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="57">
+        <v>1</v>
+      </c>
+      <c r="M2" s="57">
+        <v>1</v>
+      </c>
+      <c r="N2" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+    </row>
+    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="41">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="43">
+        <v>2</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="50">
+        <v>2</v>
+      </c>
+      <c r="H3" s="50">
+        <v>2</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="53">
+        <v>4</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="41">
+        <v>3</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="43">
+        <v>3</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="50">
+        <v>3</v>
+      </c>
+      <c r="H4" s="50">
+        <v>3</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="53">
+        <v>6</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="57">
+        <v>2</v>
+      </c>
+      <c r="M4" s="57">
+        <v>3</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="41">
+        <v>4</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="43">
+        <v>4</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="O1" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="P1" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q1" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="S1" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="T1" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="U1" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="W1" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="X1" s="55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
-      <c r="B2" s="57">
-        <v>1</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="59">
-        <v>1</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="67">
-        <v>1</v>
-      </c>
-      <c r="J2" s="67">
-        <v>1</v>
-      </c>
-      <c r="K2" s="70" t="s">
+      <c r="G5" s="50">
+        <v>4</v>
+      </c>
+      <c r="H5" s="50">
+        <v>4</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="53"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" s="58">
+        <v>4</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="41">
+        <v>5</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="45">
+        <v>11</v>
+      </c>
+      <c r="E6" s="45">
+        <v>5</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="50">
+        <v>4</v>
+      </c>
+      <c r="H6" s="50">
+        <v>5</v>
+      </c>
+      <c r="I6" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="N2" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="73">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="73">
-        <v>1</v>
-      </c>
-      <c r="R2" s="72" t="s">
-        <v>239</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-    </row>
-    <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="57">
-        <v>2</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="59">
-        <v>2</v>
-      </c>
-      <c r="G3" s="60" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="57">
+        <v>5</v>
+      </c>
+      <c r="M6" s="57">
+        <v>5</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="41">
+        <v>6</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="45">
+        <v>12</v>
+      </c>
+      <c r="E7" s="45">
+        <v>6</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="50">
+        <v>5</v>
+      </c>
+      <c r="H7" s="50">
+        <v>6</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="58">
+        <v>6</v>
+      </c>
+      <c r="M7" s="58">
+        <v>6</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
+        <v>7</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="45">
+        <v>13</v>
+      </c>
+      <c r="E8" s="45">
+        <v>7</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="50">
+        <v>6</v>
+      </c>
+      <c r="H8" s="50">
+        <v>7</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57">
+        <v>7</v>
+      </c>
+      <c r="N8" s="40"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="41">
+        <v>8</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45">
+        <v>8</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="50">
+        <v>7</v>
+      </c>
+      <c r="H9" s="50">
+        <v>8</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57">
+        <v>8</v>
+      </c>
+      <c r="N9" s="40"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="41">
+        <v>9</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="66">
-        <v>2</v>
-      </c>
-      <c r="J3" s="66">
-        <v>2</v>
-      </c>
-      <c r="K3" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="69">
-        <v>4</v>
-      </c>
-      <c r="N3" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="74" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q3" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="R3" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-    </row>
-    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="57">
-        <v>3</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="59">
-        <v>3</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="66">
-        <v>3</v>
-      </c>
-      <c r="J4" s="66">
-        <v>3</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="69">
-        <v>6</v>
-      </c>
-      <c r="N4" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="73">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="73">
-        <v>3</v>
-      </c>
-      <c r="R4" s="72" t="s">
-        <v>240</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-    </row>
-    <row r="5" spans="1:24" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="57">
-        <v>4</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="59">
-        <v>4</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="66">
-        <v>4</v>
-      </c>
-      <c r="J5" s="66">
-        <v>4</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="74">
-        <v>4</v>
-      </c>
-      <c r="R5" s="72" t="s">
-        <v>248</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-    </row>
-    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="57">
-        <v>5</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="61">
-        <v>11</v>
-      </c>
-      <c r="F6" s="61">
-        <v>5</v>
-      </c>
-      <c r="G6" s="60" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="50">
+        <v>7</v>
+      </c>
+      <c r="H10" s="50">
+        <v>9</v>
+      </c>
+      <c r="I10" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="66">
-        <v>4</v>
-      </c>
-      <c r="J6" s="66">
-        <v>5</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="73">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="73">
-        <v>5</v>
-      </c>
-      <c r="R6" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="57">
-        <v>6</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="61">
-        <v>12</v>
-      </c>
-      <c r="F7" s="61">
-        <v>6</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="66">
-        <v>5</v>
-      </c>
-      <c r="J7" s="66">
-        <v>6</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="74">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="74">
-        <v>6</v>
-      </c>
-      <c r="R7" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="57">
-        <v>7</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="61">
-        <v>13</v>
-      </c>
-      <c r="F8" s="61">
-        <v>7</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="66">
-        <v>6</v>
-      </c>
-      <c r="J8" s="66">
-        <v>7</v>
-      </c>
-      <c r="K8" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73">
-        <v>7</v>
-      </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="57">
-        <v>8</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61">
-        <v>8</v>
-      </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="66">
-        <v>7</v>
-      </c>
-      <c r="J9" s="66">
-        <v>8</v>
-      </c>
-      <c r="K9" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73">
-        <v>8</v>
-      </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-    </row>
-    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="57">
-        <v>9</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="66">
-        <v>7</v>
-      </c>
-      <c r="J10" s="66">
-        <v>9</v>
-      </c>
-      <c r="K10" s="70" t="s">
-        <v>238</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="57">
+      <c r="J10" s="53"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="41">
         <v>10</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="57">
-        <v>11</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="57">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="41">
         <v>12</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="57">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="41">
         <v>13</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="57">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="41">
         <v>14</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="57">
-        <v>15</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
